--- a/medicine/Sexualité et sexologie/Albert_Kirchner/Albert_Kirchner.xlsx
+++ b/medicine/Sexualité et sexologie/Albert_Kirchner/Albert_Kirchner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Kirchner, connu aussi sous le pseudonyme de Léar, né à Hambourg le 8 septembre 1860[1] et mort à Paris 14e le 11 mai 1902[2], est un photographe, cinéaste et inventeur français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Kirchner, connu aussi sous le pseudonyme de Léar, né à Hambourg le 8 septembre 1860 et mort à Paris 14e le 11 mai 1902, est un photographe, cinéaste et inventeur français. 
 Personnage mystérieux, il est connu autant pour son répertoire grivois (il est l'auteur du plus ancien film érotique qui nous soit parvenu) que pour son engagement dans la propagande religieuse (il est l'auteur du premier film sur la Passion du Christ).
 </t>
         </is>
@@ -512,20 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Jean Fritz Kirchner est originaire de Hambourg, en Allemagne. En 1883, il commence son activité de photographe à Paris, en fondant la société en nom collectif « Kirchner dit Léar et Cie », au capital de 17 000 francs, au no 50 de la rue Saint-Lazare[3].  
-Le pornographe
-En 1892, il est inculpé d'outrages aux bonnes mœurs: « à l'aide d'un nombreux personnel, il racolait des filles mineures qu'il plaçait, dans des poses non équivoques, devant son objectif. Puis il faisait vendre par des courtiers très sûrs ces articles de Paris, qui étaient très demandés ». Il est condamné à 15 mois de prison, 500 francs d'amende, et 5 ans d'interdiction de territoire[4]. 
-En 1894, il est domicilié au no 35 de la rue Grange-aux-Belles. En 1896, il est engagé comme opérateur chez Eugène Pirou[5],[6], un photographe renommé, auteur d’albums de Visions d’art contenant des clichés de jolies Parisiennes plus ou moins déshabillées. 
-Enthousiasmé par l'invention du procédé Lumière en 1895, Albert Kirchner adapte en 1896 une pièce de théâtre très en vogue à l'Olympia, Le Coucher de la mariée, et en tire le plus ancien film érotique qui nous soit parvenu[7],[8], avec l’actrice Louise Willy. Ce film est exploité par Pirou au Café de la paix, avec un appareil Joly-Normandin, et connaît un grand succès. 
-En 1897, Albert Kirchner dépose, avec Paul Anthelme, un brevet[9] pour un « appareil chronophotographique perfectionné ». L'appareil est lancé sous le nom « Biographe français », et est fabriqué dans les ateliers de M. Héry (un ancien ouvrier d'Henri Joly), en format 35 et 60 mm[10],[11]. Albert Kirchner installe l'appareil dans les sous-sols de l’Olympia, au musée Oller, et effectue des projections qui servent d’intermède au spectacle. Le Biographe français fonctionne également au Café Frontin, 6, boulevard Poissonnière.
-Le catholique
-Au printemps 1897, Albert Kirchner tourne avec Georges Michel Coissac une Passion du Christ[6] pour la Maison de la Bonne Presse. Tourné à Paris, en douze tableaux vivants, d'une durée de 5 minutes, il est le premier film de l'histoire du cinéma fondé sur la vie du Christ[8]. Malgré ou grâce à la polémique qui accompagne sa sortie (« faut-il représenter le Christ ? »), le film est montré en France et à l'étranger, et il influence profondément les réalisateurs ultérieurs : en février 1898, le révérend Thomas F. Dixon Jr. (par ailleurs romancier et auteur de The Clansman, dont D. W. Griffith tire son film Naissance d'une nation[12]) s'en sert dans ses prêches. Aujourd'hui, le film est toujours porté disparu.
-En 1897 encore, Albert Kirchner réalise une douzaine de scènes comiques dans le goût des premiers films Lumière : Bataille d’oreillers, L’arroseur arrosé, etc.
-En septembre 1897 et janvier 1898, il dépose deux nouveaux brevets pour des appareils également baptisés « Biographe français ».
-Entre les deux dates, Albert Kirchner accompagne le Père Bailly dans un pèlerinage en Terre sainte, d’où il ramène quelques vues de Palestine et d’Égypte. En 1901, on le trouve encore cité dans une affaire de trafic d'images pornographiques[12].
-Peu de temps après, Albert Kirchner cède tous ses négatifs à la Gaumont et l’ensemble de ses brevets à la Maison de la Bonne Presse. Il meurt en 1902 à l'hôpital psychiatrique Sainte-Anne, où il était interné[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Jean Fritz Kirchner est originaire de Hambourg, en Allemagne. En 1883, il commence son activité de photographe à Paris, en fondant la société en nom collectif « Kirchner dit Léar et Cie », au capital de 17 000 francs, au no 50 de la rue Saint-Lazare.  
 </t>
         </is>
       </c>
@@ -551,13 +554,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Filmographie</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1896 : Le Coucher de la mariée (7 minutes - 60 mètres)
-1897 : La Passion du Christ (5 minutes)</t>
+          <t>Le pornographe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1892, il est inculpé d'outrages aux bonnes mœurs: « à l'aide d'un nombreux personnel, il racolait des filles mineures qu'il plaçait, dans des poses non équivoques, devant son objectif. Puis il faisait vendre par des courtiers très sûrs ces articles de Paris, qui étaient très demandés ». Il est condamné à 15 mois de prison, 500 francs d'amende, et 5 ans d'interdiction de territoire. 
+En 1894, il est domicilié au no 35 de la rue Grange-aux-Belles. En 1896, il est engagé comme opérateur chez Eugène Pirou un photographe renommé, auteur d’albums de Visions d’art contenant des clichés de jolies Parisiennes plus ou moins déshabillées. 
+Enthousiasmé par l'invention du procédé Lumière en 1895, Albert Kirchner adapte en 1896 une pièce de théâtre très en vogue à l'Olympia, Le Coucher de la mariée, et en tire le plus ancien film érotique qui nous soit parvenu avec l’actrice Louise Willy. Ce film est exploité par Pirou au Café de la paix, avec un appareil Joly-Normandin, et connaît un grand succès. 
+En 1897, Albert Kirchner dépose, avec Paul Anthelme, un brevet pour un « appareil chronophotographique perfectionné ». L'appareil est lancé sous le nom « Biographe français », et est fabriqué dans les ateliers de M. Héry (un ancien ouvrier d'Henri Joly), en format 35 et 60 mm,. Albert Kirchner installe l'appareil dans les sous-sols de l’Olympia, au musée Oller, et effectue des projections qui servent d’intermède au spectacle. Le Biographe français fonctionne également au Café Frontin, 6, boulevard Poissonnière.
+</t>
         </is>
       </c>
     </row>
@@ -582,10 +594,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le catholique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au printemps 1897, Albert Kirchner tourne avec Georges Michel Coissac une Passion du Christ pour la Maison de la Bonne Presse. Tourné à Paris, en douze tableaux vivants, d'une durée de 5 minutes, il est le premier film de l'histoire du cinéma fondé sur la vie du Christ. Malgré ou grâce à la polémique qui accompagne sa sortie (« faut-il représenter le Christ ? »), le film est montré en France et à l'étranger, et il influence profondément les réalisateurs ultérieurs : en février 1898, le révérend Thomas F. Dixon Jr. (par ailleurs romancier et auteur de The Clansman, dont D. W. Griffith tire son film Naissance d'une nation) s'en sert dans ses prêches. Aujourd'hui, le film est toujours porté disparu.
+En 1897 encore, Albert Kirchner réalise une douzaine de scènes comiques dans le goût des premiers films Lumière : Bataille d’oreillers, L’arroseur arrosé, etc.
+En septembre 1897 et janvier 1898, il dépose deux nouveaux brevets pour des appareils également baptisés « Biographe français ».
+Entre les deux dates, Albert Kirchner accompagne le Père Bailly dans un pèlerinage en Terre sainte, d’où il ramène quelques vues de Palestine et d’Égypte. En 1901, on le trouve encore cité dans une affaire de trafic d'images pornographiques.
+Peu de temps après, Albert Kirchner cède tous ses négatifs à la Gaumont et l’ensemble de ses brevets à la Maison de la Bonne Presse. Il meurt en 1902 à l'hôpital psychiatrique Sainte-Anne, où il était interné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Kirchner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Kirchner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1896 : Le Coucher de la mariée (7 minutes - 60 mètres)
+1897 : La Passion du Christ (5 minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albert_Kirchner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Kirchner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Brevets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>FR 262.913 du 8 janvier 1897 : Appareil chronophotographique perfectionné (en coll. avec Paul Anthelme), reproduit sur cinematographes.free.fr/
 FR 270.671 du 22 septembre 1897 : Biographe perfectionné dit Biographe français.
